--- a/Mat_sim_results/仿真数据.xlsx
+++ b/Mat_sim_results/仿真数据.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic_D\MyProjects\Github_Desktop_repos\Convolutional_Code_Matlab_Simulation\Mat_sim_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\myProjects\Convolutional_Code_Matlab_Simulation\Mat_sim_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED21FC8E-0B02-4FA9-BBE6-5EC19930CDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E09A8EA-A28C-4CE1-A42A-370EE62F4BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="码长L" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>test1</t>
   </si>
@@ -50,6 +51,42 @@
   </si>
   <si>
     <t>结论：码长较短时会带来一定影响，码长大于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本条件：基带码长L=256，</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.000000  0.265077  0.195126  0.435471  0.208139  0.120452  0.053464</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.000000  0.135844  0.063444  0.252274  0.029349  0.024207  0.001685</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.000000  0.032043  0.008827  0.033652  0.001504  0.001458  0.000026</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.000000  0.004058  0.000350  0.001539  0.000070  0.000070  0.000001</t>
+  </si>
+  <si>
+    <t>10.000000  0.000187  0.000000  0.000105  0.000000  0.000000  0.000000</t>
+  </si>
+  <si>
+    <t>12.000000  0.000023  0.000000  0.000000  0.000000  0.000000  0.000000</t>
+  </si>
+  <si>
+    <t>14.000000  0.000000  0.000000  0.000000  0.000000  0.000000  0.000000</t>
+  </si>
+  <si>
+    <t>16.000000  0.000000  0.000000  0.000000  0.000000  0.000000  0.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.000000  0.364412  0.312990  0.481973  0.404676  0.257148  0.275560</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +227,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>93119</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>72206</xdr:rowOff>
+      <xdr:rowOff>76968</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -234,7 +271,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>207420</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>155898</xdr:rowOff>
+      <xdr:rowOff>160660</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -364,9 +401,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>100740</xdr:colOff>
+      <xdr:colOff>105502</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>41599</xdr:rowOff>
+      <xdr:rowOff>46361</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -390,6 +427,94 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2004060" y="2278381"/>
+          <a:ext cx="1800000" cy="1443678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>140075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>12662</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E512332B-1F0D-EB91-7ACC-0CAC85F8B9CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14321118" y="2224369"/>
+          <a:ext cx="1800000" cy="1473575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>319368</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>186353</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>87768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{677D7B0E-2133-A114-C218-3623B08DA5FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16427824" y="2291605"/>
           <a:ext cx="1800000" cy="1443678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -662,13 +787,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -687,14 +812,14 @@
       <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W1" t="s">
-        <v>2</v>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="X1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="H2" t="s">
         <v>4</v>
       </c>
@@ -740,8 +865,11 @@
       <c r="AA2">
         <v>1024</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB2">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -791,22 +919,22 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.31025000000000003</v>
+        <v>0.29583300000000001</v>
       </c>
       <c r="Y3">
-        <v>0.349854</v>
+        <v>0.34949999999999998</v>
       </c>
       <c r="Z3">
-        <v>0.36185699999999998</v>
+        <v>0.36381999999999998</v>
       </c>
       <c r="AA3">
-        <v>0.36466500000000002</v>
+        <v>0.36404700000000001</v>
       </c>
       <c r="AB3">
-        <v>0.36381000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0.36433500000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -856,22 +984,22 @@
         <v>2</v>
       </c>
       <c r="X4">
-        <v>0.22450000000000001</v>
+        <v>0.22375</v>
       </c>
       <c r="Y4">
-        <v>0.25212499999999999</v>
+        <v>0.25374999999999998</v>
       </c>
       <c r="Z4">
-        <v>0.26075300000000001</v>
+        <v>0.26419500000000001</v>
       </c>
       <c r="AA4">
-        <v>0.263542</v>
+        <v>0.26371099999999997</v>
       </c>
       <c r="AB4">
-        <v>0.263988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0.264486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -921,22 +1049,22 @@
         <v>4</v>
       </c>
       <c r="X5">
-        <v>0.13583300000000001</v>
+        <v>0.14883299999999999</v>
       </c>
       <c r="Y5">
-        <v>0.134021</v>
+        <v>0.126</v>
       </c>
       <c r="Z5">
-        <v>0.133328</v>
+        <v>0.131518</v>
       </c>
       <c r="AA5">
-        <v>0.13164699999999999</v>
+        <v>0.130297</v>
       </c>
       <c r="AB5">
-        <v>0.131193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0.13200100000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -986,22 +1114,22 @@
         <v>6</v>
       </c>
       <c r="X6">
-        <v>6.8917000000000006E-2</v>
+        <v>6.5833000000000003E-2</v>
       </c>
       <c r="Y6">
-        <v>4.2999999999999997E-2</v>
+        <v>4.0292000000000001E-2</v>
       </c>
       <c r="Z6">
-        <v>3.4909000000000003E-2</v>
+        <v>3.3244999999999997E-2</v>
       </c>
       <c r="AA6">
-        <v>3.3196000000000003E-2</v>
+        <v>3.3083000000000001E-2</v>
       </c>
       <c r="AB6">
-        <v>3.3229000000000002E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+        <v>3.3250000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1051,22 +1179,22 @@
         <v>8</v>
       </c>
       <c r="X7">
-        <v>1.8832999999999999E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="Y7">
-        <v>6.7289999999999997E-3</v>
+        <v>7.4580000000000002E-3</v>
       </c>
       <c r="Z7">
-        <v>3.7629999999999999E-3</v>
+        <v>3.7580000000000001E-3</v>
       </c>
       <c r="AA7">
-        <v>3.3289999999999999E-3</v>
+        <v>3.3739999999999998E-3</v>
       </c>
       <c r="AB7">
-        <v>3.2550000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+        <v>3.3040000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>10</v>
       </c>
@@ -1116,22 +1244,22 @@
         <v>10</v>
       </c>
       <c r="X8">
-        <v>2.9169999999999999E-3</v>
+        <v>4.1669999999999997E-3</v>
       </c>
       <c r="Y8">
-        <v>9.3700000000000001E-4</v>
+        <v>8.5400000000000005E-4</v>
       </c>
       <c r="Z8">
-        <v>2.0100000000000001E-4</v>
+        <v>1.93E-4</v>
       </c>
       <c r="AA8">
-        <v>1.18E-4</v>
+        <v>1.07E-4</v>
       </c>
       <c r="AB8">
-        <v>1.16E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+        <v>1.1E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="H9">
         <v>12</v>
       </c>
@@ -1166,22 +1294,22 @@
         <v>12</v>
       </c>
       <c r="X9">
-        <v>4.17E-4</v>
+        <v>6.6699999999999995E-4</v>
       </c>
       <c r="Y9">
-        <v>1.25E-4</v>
+        <v>1.46E-4</v>
       </c>
       <c r="Z9">
-        <v>2.3E-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="AA9">
-        <v>3.9999999999999998E-6</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="AB9">
-        <v>3.0000000000000001E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1219,22 +1347,22 @@
         <v>14</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>8.2999999999999998E-5</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>2.0999999999999999E-5</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="H11">
         <v>16</v>
       </c>
@@ -1269,7 +1397,7 @@
         <v>16</v>
       </c>
       <c r="X11">
-        <v>8.2999999999999998E-5</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1284,15 +1412,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="H12" t="s">
         <v>5</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="W12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1308,11 +1439,687 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C62B77-8BD9-4655-81AC-EFBCEAA8F16E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC37ED4C-190C-4C2A-A970-F35C0D4610DF}">
+  <dimension ref="A3:R36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0.36441200000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.31298999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.48197299999999998</v>
+      </c>
+      <c r="E3">
+        <v>0.40467599999999998</v>
+      </c>
+      <c r="F3">
+        <v>0.25714799999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.27556000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.26507700000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.19512599999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.435471</v>
+      </c>
+      <c r="E4">
+        <v>0.20813899999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.120452</v>
+      </c>
+      <c r="G4">
+        <v>5.3463999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.13584399999999999</v>
+      </c>
+      <c r="C5">
+        <v>6.3444E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.252274</v>
+      </c>
+      <c r="E5">
+        <v>2.9349E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.4206999999999999E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.6850000000000001E-3</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3.2043000000000002E-2</v>
+      </c>
+      <c r="C6">
+        <v>8.8269999999999998E-3</v>
+      </c>
+      <c r="D6">
+        <v>3.3652000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.5039999999999999E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.4580000000000001E-3</v>
+      </c>
+      <c r="G6">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>4.058E-3</v>
+      </c>
+      <c r="C7">
+        <v>3.5E-4</v>
+      </c>
+      <c r="D7">
+        <v>1.539E-3</v>
+      </c>
+      <c r="E7">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="F7">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="G7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1.8699999999999999E-4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1.05E-4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0.36441200000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.31298999999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.48197299999999998</v>
+      </c>
+      <c r="P17">
+        <v>0.40467599999999998</v>
+      </c>
+      <c r="Q17">
+        <v>0.25714799999999999</v>
+      </c>
+      <c r="R17">
+        <v>0.27556000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>0.26507700000000001</v>
+      </c>
+      <c r="N18">
+        <v>0.19512599999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.435471</v>
+      </c>
+      <c r="P18">
+        <v>0.20813899999999999</v>
+      </c>
+      <c r="Q18">
+        <v>0.120452</v>
+      </c>
+      <c r="R18">
+        <v>5.3463999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>0.13584399999999999</v>
+      </c>
+      <c r="N19">
+        <v>6.3444E-2</v>
+      </c>
+      <c r="O19">
+        <v>0.252274</v>
+      </c>
+      <c r="P19">
+        <v>2.9349E-2</v>
+      </c>
+      <c r="Q19">
+        <v>2.4206999999999999E-2</v>
+      </c>
+      <c r="R19">
+        <v>1.6850000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="L20">
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <v>3.2043000000000002E-2</v>
+      </c>
+      <c r="N20">
+        <v>8.8269999999999998E-3</v>
+      </c>
+      <c r="O20">
+        <v>3.3652000000000001E-2</v>
+      </c>
+      <c r="P20">
+        <v>1.5039999999999999E-3</v>
+      </c>
+      <c r="Q20">
+        <v>1.4580000000000001E-3</v>
+      </c>
+      <c r="R20">
+        <v>2.5999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="L21">
+        <v>8</v>
+      </c>
+      <c r="M21">
+        <v>4.058E-3</v>
+      </c>
+      <c r="N21">
+        <v>3.5E-4</v>
+      </c>
+      <c r="O21">
+        <v>1.539E-3</v>
+      </c>
+      <c r="P21">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="Q21">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="R21">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22">
+        <v>1.8699999999999999E-4</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1.05E-4</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="K23">
+        <v>12</v>
+      </c>
+      <c r="L23">
+        <v>2.3E-5</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="K24">
+        <v>14</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="K25">
+        <v>16</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0.36441200000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.31298999999999999</v>
+      </c>
+      <c r="G28">
+        <v>0.48197299999999998</v>
+      </c>
+      <c r="H28">
+        <v>0.40467599999999998</v>
+      </c>
+      <c r="I28">
+        <v>0.25714799999999999</v>
+      </c>
+      <c r="J28">
+        <v>0.27556000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0.26507700000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.19512599999999999</v>
+      </c>
+      <c r="G29">
+        <v>0.435471</v>
+      </c>
+      <c r="H29">
+        <v>0.20813899999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.120452</v>
+      </c>
+      <c r="J29">
+        <v>5.3463999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>0.13584399999999999</v>
+      </c>
+      <c r="F30">
+        <v>6.3444E-2</v>
+      </c>
+      <c r="G30">
+        <v>0.252274</v>
+      </c>
+      <c r="H30">
+        <v>2.9349E-2</v>
+      </c>
+      <c r="I30">
+        <v>2.4206999999999999E-2</v>
+      </c>
+      <c r="J30">
+        <v>1.6850000000000001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>3.2043000000000002E-2</v>
+      </c>
+      <c r="F31">
+        <v>8.8269999999999998E-3</v>
+      </c>
+      <c r="G31">
+        <v>3.3652000000000001E-2</v>
+      </c>
+      <c r="H31">
+        <v>1.5039999999999999E-3</v>
+      </c>
+      <c r="I31">
+        <v>1.4580000000000001E-3</v>
+      </c>
+      <c r="J31">
+        <v>2.5999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18" x14ac:dyDescent="0.4">
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>4.058E-3</v>
+      </c>
+      <c r="F32">
+        <v>3.5E-4</v>
+      </c>
+      <c r="G32">
+        <v>1.539E-3</v>
+      </c>
+      <c r="H32">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="I32">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="J32">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>1.8699999999999999E-4</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1.05E-4</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>2.3E-5</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D35">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mat_sim_results/仿真数据.xlsx
+++ b/Mat_sim_results/仿真数据.xlsx
@@ -5,24 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic\myProjects\Convolutional_Code_Matlab_Simulation\Mat_sim_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic_D\MyProjects\Github_Desktop_repos\Convolutional_Code_Matlab_Simulation\Mat_sim_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E09A8EA-A28C-4CE1-A42A-370EE62F4BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6844D6A-0073-40FA-8123-6ABC56FC7208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="码长L" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>test1</t>
   </si>
@@ -62,32 +61,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2.000000  0.265077  0.195126  0.435471  0.208139  0.120452  0.053464</t>
+    <t>实验序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 4.000000  0.135844  0.063444  0.252274  0.029349  0.024207  0.001685</t>
+    <t>约束长度K</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 6.000000  0.032043  0.008827  0.033652  0.001504  0.001458  0.000026</t>
+    <t>生成矩阵g</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 8.000000  0.004058  0.000350  0.001539  0.000070  0.000070  0.000001</t>
+    <t>[5 7]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>10.000000  0.000187  0.000000  0.000105  0.000000  0.000000  0.000000</t>
+    <t>最小回溯深度（能够无视性能损失</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>12.000000  0.000023  0.000000  0.000000  0.000000  0.000000  0.000000</t>
-  </si>
-  <si>
-    <t>14.000000  0.000000  0.000000  0.000000  0.000000  0.000000  0.000000</t>
-  </si>
-  <si>
-    <t>16.000000  0.000000  0.000000  0.000000  0.000000  0.000000  0.000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000000  0.364412  0.312990  0.481973  0.404676  0.257148  0.275560</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>码率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -146,12 +141,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,13 +797,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -819,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
         <v>4</v>
       </c>
@@ -869,7 +879,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -934,7 +944,7 @@
         <v>0.36433500000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -999,7 +1009,7 @@
         <v>0.264486</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1064,7 +1074,7 @@
         <v>0.13200100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1129,7 +1139,7 @@
         <v>3.3250000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1194,7 +1204,7 @@
         <v>3.3040000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -1259,7 +1269,7 @@
         <v>1.1E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H9">
         <v>12</v>
       </c>
@@ -1309,7 +1319,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1362,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H11">
         <v>16</v>
       </c>
@@ -1412,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
         <v>5</v>
       </c>
@@ -1423,7 +1433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1437,689 +1447,168 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C62B77-8BD9-4655-81AC-EFBCEAA8F16E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="11" style="5" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5">
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45660</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45661</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC37ED4C-190C-4C2A-A970-F35C0D4610DF}">
-  <dimension ref="A3:R36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0.36441200000000001</v>
-      </c>
-      <c r="C3">
-        <v>0.31298999999999999</v>
-      </c>
-      <c r="D3">
-        <v>0.48197299999999998</v>
-      </c>
-      <c r="E3">
-        <v>0.40467599999999998</v>
-      </c>
-      <c r="F3">
-        <v>0.25714799999999999</v>
-      </c>
-      <c r="G3">
-        <v>0.27556000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.26507700000000001</v>
-      </c>
-      <c r="C4">
-        <v>0.19512599999999999</v>
-      </c>
-      <c r="D4">
-        <v>0.435471</v>
-      </c>
-      <c r="E4">
-        <v>0.20813899999999999</v>
-      </c>
-      <c r="F4">
-        <v>0.120452</v>
-      </c>
-      <c r="G4">
-        <v>5.3463999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.13584399999999999</v>
-      </c>
-      <c r="C5">
-        <v>6.3444E-2</v>
-      </c>
-      <c r="D5">
-        <v>0.252274</v>
-      </c>
-      <c r="E5">
-        <v>2.9349E-2</v>
-      </c>
-      <c r="F5">
-        <v>2.4206999999999999E-2</v>
-      </c>
-      <c r="G5">
-        <v>1.6850000000000001E-3</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>3.2043000000000002E-2</v>
-      </c>
-      <c r="C6">
-        <v>8.8269999999999998E-3</v>
-      </c>
-      <c r="D6">
-        <v>3.3652000000000001E-2</v>
-      </c>
-      <c r="E6">
-        <v>1.5039999999999999E-3</v>
-      </c>
-      <c r="F6">
-        <v>1.4580000000000001E-3</v>
-      </c>
-      <c r="G6">
-        <v>2.5999999999999998E-5</v>
-      </c>
-      <c r="O6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>4.058E-3</v>
-      </c>
-      <c r="C7">
-        <v>3.5E-4</v>
-      </c>
-      <c r="D7">
-        <v>1.539E-3</v>
-      </c>
-      <c r="E7">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="F7">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="G7">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="O7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>1.8699999999999999E-4</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1.05E-4</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>2.3E-5</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="O10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="O13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.4">
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0.36441200000000001</v>
-      </c>
-      <c r="N17">
-        <v>0.31298999999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.48197299999999998</v>
-      </c>
-      <c r="P17">
-        <v>0.40467599999999998</v>
-      </c>
-      <c r="Q17">
-        <v>0.25714799999999999</v>
-      </c>
-      <c r="R17">
-        <v>0.27556000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.4">
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>0.26507700000000001</v>
-      </c>
-      <c r="N18">
-        <v>0.19512599999999999</v>
-      </c>
-      <c r="O18">
-        <v>0.435471</v>
-      </c>
-      <c r="P18">
-        <v>0.20813899999999999</v>
-      </c>
-      <c r="Q18">
-        <v>0.120452</v>
-      </c>
-      <c r="R18">
-        <v>5.3463999999999998E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.4">
-      <c r="L19">
-        <v>4</v>
-      </c>
-      <c r="M19">
-        <v>0.13584399999999999</v>
-      </c>
-      <c r="N19">
-        <v>6.3444E-2</v>
-      </c>
-      <c r="O19">
-        <v>0.252274</v>
-      </c>
-      <c r="P19">
-        <v>2.9349E-2</v>
-      </c>
-      <c r="Q19">
-        <v>2.4206999999999999E-2</v>
-      </c>
-      <c r="R19">
-        <v>1.6850000000000001E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.4">
-      <c r="L20">
-        <v>6</v>
-      </c>
-      <c r="M20">
-        <v>3.2043000000000002E-2</v>
-      </c>
-      <c r="N20">
-        <v>8.8269999999999998E-3</v>
-      </c>
-      <c r="O20">
-        <v>3.3652000000000001E-2</v>
-      </c>
-      <c r="P20">
-        <v>1.5039999999999999E-3</v>
-      </c>
-      <c r="Q20">
-        <v>1.4580000000000001E-3</v>
-      </c>
-      <c r="R20">
-        <v>2.5999999999999998E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.4">
-      <c r="L21">
-        <v>8</v>
-      </c>
-      <c r="M21">
-        <v>4.058E-3</v>
-      </c>
-      <c r="N21">
-        <v>3.5E-4</v>
-      </c>
-      <c r="O21">
-        <v>1.539E-3</v>
-      </c>
-      <c r="P21">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="Q21">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="R21">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.4">
-      <c r="K22">
-        <v>10</v>
-      </c>
-      <c r="L22">
-        <v>1.8699999999999999E-4</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>1.05E-4</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="4:18" x14ac:dyDescent="0.4">
-      <c r="K23">
-        <v>12</v>
-      </c>
-      <c r="L23">
-        <v>2.3E-5</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:18" x14ac:dyDescent="0.4">
-      <c r="K24">
-        <v>14</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.4">
-      <c r="K25">
-        <v>16</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="4:18" x14ac:dyDescent="0.4">
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0.36441200000000001</v>
-      </c>
-      <c r="F28">
-        <v>0.31298999999999999</v>
-      </c>
-      <c r="G28">
-        <v>0.48197299999999998</v>
-      </c>
-      <c r="H28">
-        <v>0.40467599999999998</v>
-      </c>
-      <c r="I28">
-        <v>0.25714799999999999</v>
-      </c>
-      <c r="J28">
-        <v>0.27556000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="4:18" x14ac:dyDescent="0.4">
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>0.26507700000000001</v>
-      </c>
-      <c r="F29">
-        <v>0.19512599999999999</v>
-      </c>
-      <c r="G29">
-        <v>0.435471</v>
-      </c>
-      <c r="H29">
-        <v>0.20813899999999999</v>
-      </c>
-      <c r="I29">
-        <v>0.120452</v>
-      </c>
-      <c r="J29">
-        <v>5.3463999999999998E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.4">
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>0.13584399999999999</v>
-      </c>
-      <c r="F30">
-        <v>6.3444E-2</v>
-      </c>
-      <c r="G30">
-        <v>0.252274</v>
-      </c>
-      <c r="H30">
-        <v>2.9349E-2</v>
-      </c>
-      <c r="I30">
-        <v>2.4206999999999999E-2</v>
-      </c>
-      <c r="J30">
-        <v>1.6850000000000001E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="4:18" x14ac:dyDescent="0.4">
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="E31">
-        <v>3.2043000000000002E-2</v>
-      </c>
-      <c r="F31">
-        <v>8.8269999999999998E-3</v>
-      </c>
-      <c r="G31">
-        <v>3.3652000000000001E-2</v>
-      </c>
-      <c r="H31">
-        <v>1.5039999999999999E-3</v>
-      </c>
-      <c r="I31">
-        <v>1.4580000000000001E-3</v>
-      </c>
-      <c r="J31">
-        <v>2.5999999999999998E-5</v>
-      </c>
-    </row>
-    <row r="32" spans="4:18" x14ac:dyDescent="0.4">
-      <c r="D32">
-        <v>8</v>
-      </c>
-      <c r="E32">
-        <v>4.058E-3</v>
-      </c>
-      <c r="F32">
-        <v>3.5E-4</v>
-      </c>
-      <c r="G32">
-        <v>1.539E-3</v>
-      </c>
-      <c r="H32">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="I32">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="J32">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>1.8699999999999999E-4</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>1.05E-4</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D34">
-        <v>12</v>
-      </c>
-      <c r="E34">
-        <v>2.3E-5</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D35">
-        <v>14</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D36">
-        <v>16</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Mat_sim_results/仿真数据.xlsx
+++ b/Mat_sim_results/仿真数据.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academic_D\MyProjects\Github_Desktop_repos\Convolutional_Code_Matlab_Simulation\Mat_sim_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6844D6A-0073-40FA-8123-6ABC56FC7208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6529F989-89C4-4469-85C4-B7B113AA6D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23136" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="码长L" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="最小回溯深度" sheetId="2" r:id="rId2"/>
+    <sheet name="方案多维对比" sheetId="3" r:id="rId3"/>
+    <sheet name="conv参数对比" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>test1</t>
   </si>
@@ -84,6 +86,150 @@
     <t>码率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>ebno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsss, m=15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsss, m=31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m=15时， 抽头[4 1], reg初值[1 0 0 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m=32时， 抽头[5 3 2], reg初值[1 0 0 0 0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>均bpsk调制, conv参数为(n,k,K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4,1,3)conv, g=[5 7 7 7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R=1/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2,1,3)conv, R=1/2, K=3, g=[5 7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2,1,5)conv, R=1/2, K=5, g=[23 35]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2,1,7)conv, R=1/2, K=7, g=[171 133]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3,1,3)conv, R=1/3, K=3, g=[5 7 7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2,1,9)conv, R=1/2, K=9, g=[561 753]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3,1,5)conv, R=1/3, K=5, g=[25 33 37]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5 7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R=1/2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[23 35]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[171 133]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[561 753]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R=1/3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5 7 7]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[25 33 37]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[133 145 175]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[557 663 711]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R=1/4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5 7 7 7]</t>
+  </si>
+  <si>
+    <t>[25 27 33 37]</t>
+  </si>
+  <si>
+    <t>[135 135 147 163]</t>
+  </si>
+  <si>
+    <t>[363 535 733 745]</t>
+  </si>
+  <si>
+    <t>K=3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>man</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>K=5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>K=7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>K=9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -141,27 +287,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,13 +940,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -829,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H2" t="s">
         <v>4</v>
       </c>
@@ -879,7 +1022,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -944,7 +1087,7 @@
         <v>0.36433500000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1009,7 +1152,7 @@
         <v>0.264486</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1074,7 +1217,7 @@
         <v>0.13200100000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1139,7 +1282,7 @@
         <v>3.3250000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1204,7 +1347,7 @@
         <v>3.3040000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10</v>
       </c>
@@ -1269,7 +1412,7 @@
         <v>1.1E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H9">
         <v>12</v>
       </c>
@@ -1319,7 +1462,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H11">
         <v>16</v>
       </c>
@@ -1422,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H12" t="s">
         <v>5</v>
       </c>
@@ -1433,7 +1576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1447,168 +1590,5049 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C62B77-8BD9-4655-81AC-EFBCEAA8F16E}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="11" style="5" customWidth="1"/>
-    <col min="3" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11" customWidth="1"/>
+    <col min="3" max="4" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1">
+      <c r="J2">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="C2">
+      <c r="C3">
         <v>3</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73099BF6-EB43-4992-98BD-8C53E52C96C1}">
+  <dimension ref="A1:W82"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="S1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>-6</v>
+      </c>
+      <c r="B3">
+        <v>0.30819200000000002</v>
+      </c>
+      <c r="C3">
+        <v>0.44116</v>
+      </c>
+      <c r="D3">
+        <v>1.4019999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.6799999999999999E-4</v>
+      </c>
+      <c r="G3">
+        <v>-8</v>
+      </c>
+      <c r="H3">
+        <v>0.34513500000000003</v>
+      </c>
+      <c r="I3">
+        <v>0.49157000000000001</v>
+      </c>
+      <c r="J3">
+        <v>0.107821</v>
+      </c>
+      <c r="K3">
+        <v>2.47E-3</v>
+      </c>
+      <c r="M3">
+        <v>-8</v>
+      </c>
+      <c r="N3">
+        <v>0.34533000000000003</v>
+      </c>
+      <c r="O3">
+        <v>0.497832</v>
+      </c>
+      <c r="P3">
+        <v>0.13267300000000001</v>
+      </c>
+      <c r="Q3">
+        <v>1.5590000000000001E-3</v>
+      </c>
+      <c r="S3">
+        <v>-8</v>
+      </c>
+      <c r="T3">
+        <v>0.34543099999999999</v>
+      </c>
+      <c r="U3">
+        <v>0.49771500000000002</v>
+      </c>
+      <c r="V3">
+        <v>0.13903399999999999</v>
+      </c>
+      <c r="W3">
+        <v>9.41E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-5</v>
+      </c>
+      <c r="B4">
+        <v>0.287165</v>
+      </c>
+      <c r="C4">
+        <v>0.42199599999999998</v>
+      </c>
+      <c r="D4">
+        <v>4.2110000000000003E-3</v>
+      </c>
+      <c r="E4">
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="G4">
+        <v>-7</v>
+      </c>
+      <c r="H4">
+        <v>0.327598</v>
+      </c>
+      <c r="I4">
+        <v>0.48749399999999998</v>
+      </c>
+      <c r="J4">
+        <v>4.3305999999999997E-2</v>
+      </c>
+      <c r="K4">
+        <v>5.1099999999999995E-4</v>
+      </c>
+      <c r="M4">
+        <v>-7</v>
+      </c>
+      <c r="N4">
+        <v>0.32807500000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.49776100000000001</v>
+      </c>
+      <c r="P4">
+        <v>4.3246E-2</v>
+      </c>
+      <c r="Q4">
+        <v>3.7599999999999998E-4</v>
+      </c>
+      <c r="S4">
+        <v>-7</v>
+      </c>
+      <c r="T4">
+        <v>0.32742500000000002</v>
+      </c>
+      <c r="U4">
+        <v>0.49733899999999998</v>
+      </c>
+      <c r="V4">
+        <v>3.6969000000000002E-2</v>
+      </c>
+      <c r="W4">
+        <v>2.3900000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-4</v>
+      </c>
+      <c r="B5">
+        <v>0.26383200000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.39637</v>
+      </c>
+      <c r="D5">
+        <v>9.8799999999999995E-4</v>
+      </c>
+      <c r="E5">
+        <v>1.1E-5</v>
+      </c>
+      <c r="G5">
+        <v>-6</v>
+      </c>
+      <c r="H5">
+        <v>0.307894</v>
+      </c>
+      <c r="I5">
+        <v>0.48318899999999998</v>
+      </c>
+      <c r="J5">
+        <v>1.2578000000000001E-2</v>
+      </c>
+      <c r="K5">
+        <v>1.2899999999999999E-4</v>
+      </c>
+      <c r="M5">
+        <v>-6</v>
+      </c>
+      <c r="N5">
+        <v>0.30824800000000002</v>
+      </c>
+      <c r="O5">
+        <v>0.496697</v>
+      </c>
+      <c r="P5">
+        <v>9.4769999999999993E-3</v>
+      </c>
+      <c r="Q5">
+        <v>9.7999999999999997E-5</v>
+      </c>
+      <c r="S5">
+        <v>-6</v>
+      </c>
+      <c r="T5">
+        <v>0.30755900000000003</v>
+      </c>
+      <c r="U5">
+        <v>0.496195</v>
+      </c>
+      <c r="V5">
+        <v>5.7889999999999999E-3</v>
+      </c>
+      <c r="W5">
+        <v>7.3999999999999996E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-3</v>
+      </c>
+      <c r="B6">
+        <v>0.23947299999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.364317</v>
+      </c>
+      <c r="D6">
+        <v>1.9699999999999999E-4</v>
+      </c>
+      <c r="E6">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="G6">
+        <v>-5</v>
+      </c>
+      <c r="H6">
+        <v>0.286271</v>
+      </c>
+      <c r="I6">
+        <v>0.47478199999999998</v>
+      </c>
+      <c r="J6">
+        <v>2.8289999999999999E-3</v>
+      </c>
+      <c r="K6">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="M6">
+        <v>-5</v>
+      </c>
+      <c r="N6">
+        <v>0.28679500000000002</v>
+      </c>
+      <c r="O6">
+        <v>0.49434299999999998</v>
+      </c>
+      <c r="P6">
+        <v>1.779E-3</v>
+      </c>
+      <c r="Q6">
+        <v>3.6999999999999998E-5</v>
+      </c>
+      <c r="S6">
+        <v>-5</v>
+      </c>
+      <c r="T6">
+        <v>0.286549</v>
+      </c>
+      <c r="U6">
+        <v>0.49443199999999998</v>
+      </c>
+      <c r="V6">
+        <v>1.0820000000000001E-3</v>
+      </c>
+      <c r="W6">
+        <v>3.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-2</v>
+      </c>
+      <c r="B7">
+        <v>0.21371599999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.31818999999999997</v>
+      </c>
+      <c r="D7">
+        <v>4.6999999999999997E-5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>-4</v>
+      </c>
+      <c r="H7">
+        <v>0.26370399999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.46285500000000002</v>
+      </c>
+      <c r="J7">
+        <v>5.6599999999999999E-4</v>
+      </c>
+      <c r="K7">
+        <v>1.7E-5</v>
+      </c>
+      <c r="M7">
+        <v>-4</v>
+      </c>
+      <c r="N7">
+        <v>0.26449</v>
+      </c>
+      <c r="O7">
+        <v>0.49154999999999999</v>
+      </c>
+      <c r="P7">
+        <v>3.8200000000000002E-4</v>
+      </c>
+      <c r="Q7">
+        <v>1.5E-5</v>
+      </c>
+      <c r="S7">
+        <v>-4</v>
+      </c>
+      <c r="T7">
+        <v>0.26406400000000002</v>
+      </c>
+      <c r="U7">
+        <v>0.49094500000000002</v>
+      </c>
+      <c r="V7">
+        <v>2.5399999999999999E-4</v>
+      </c>
+      <c r="W7">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-1</v>
+      </c>
+      <c r="B8">
+        <v>0.186388</v>
+      </c>
+      <c r="C8">
+        <v>0.26271600000000001</v>
+      </c>
+      <c r="D8">
+        <v>1.2E-5</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>-3</v>
+      </c>
+      <c r="H8">
+        <v>0.23927499999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.44293500000000002</v>
+      </c>
+      <c r="J8">
+        <v>1.5200000000000001E-4</v>
+      </c>
+      <c r="K8">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="M8">
+        <v>-3</v>
+      </c>
+      <c r="N8">
+        <v>0.23924200000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.48319800000000002</v>
+      </c>
+      <c r="P8">
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="Q8">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S8">
+        <v>-3</v>
+      </c>
+      <c r="T8">
+        <v>0.23904900000000001</v>
+      </c>
+      <c r="U8">
+        <v>0.48593399999999998</v>
+      </c>
+      <c r="V8">
+        <v>9.1000000000000003E-5</v>
+      </c>
+      <c r="W8">
+        <v>3.9999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0.15882399999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.198522</v>
+      </c>
+      <c r="D9">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>-2</v>
+      </c>
+      <c r="H9">
+        <v>0.213758</v>
+      </c>
+      <c r="I9">
+        <v>0.40992000000000001</v>
+      </c>
+      <c r="J9">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="K9">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="M9">
+        <v>-2</v>
+      </c>
+      <c r="N9">
+        <v>0.21321100000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.467198</v>
+      </c>
+      <c r="P9">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>-2</v>
+      </c>
+      <c r="T9">
+        <v>0.213418</v>
+      </c>
+      <c r="U9">
+        <v>0.47472399999999998</v>
+      </c>
+      <c r="V9">
+        <v>3.6999999999999998E-5</v>
+      </c>
+      <c r="W9">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0.13098399999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.133989</v>
+      </c>
+      <c r="D10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>0.186307</v>
+      </c>
+      <c r="I10">
+        <v>0.36054000000000003</v>
+      </c>
+      <c r="J10">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>-1</v>
+      </c>
+      <c r="N10">
+        <v>0.18645500000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.43454900000000002</v>
+      </c>
+      <c r="P10">
+        <v>1.2E-5</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>-1</v>
+      </c>
+      <c r="T10">
+        <v>0.18623799999999999</v>
+      </c>
+      <c r="U10">
+        <v>0.45100200000000001</v>
+      </c>
+      <c r="V10">
+        <v>1.1E-5</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0.104032</v>
+      </c>
+      <c r="C11">
+        <v>7.5620999999999994E-2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.15871099999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.28386600000000001</v>
+      </c>
+      <c r="J11">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.158746</v>
+      </c>
+      <c r="O11">
+        <v>0.36546000000000001</v>
+      </c>
+      <c r="P11">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0.15854799999999999</v>
+      </c>
+      <c r="U11">
+        <v>0.39408500000000002</v>
+      </c>
+      <c r="V11">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>7.9231999999999997E-2</v>
+      </c>
+      <c r="C12">
+        <v>3.5258999999999999E-2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0.13091700000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.193441</v>
+      </c>
+      <c r="J12">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0.13133600000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.25367400000000001</v>
+      </c>
+      <c r="P12">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>0.13072500000000001</v>
+      </c>
+      <c r="U12">
+        <v>0.28023999999999999</v>
+      </c>
+      <c r="V12">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>5.6552999999999999E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.285E-2</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0.103794</v>
+      </c>
+      <c r="I13">
+        <v>0.10184699999999999</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>0.104115</v>
+      </c>
+      <c r="O13">
+        <v>0.125693</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>0.104171</v>
+      </c>
+      <c r="U13">
+        <v>0.12930900000000001</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>3.7747999999999997E-2</v>
+      </c>
+      <c r="C14">
+        <v>3.8049999999999998E-3</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>7.8710000000000002E-2</v>
+      </c>
+      <c r="I14">
+        <v>3.9796999999999999E-2</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>7.8965999999999995E-2</v>
+      </c>
+      <c r="O14">
+        <v>3.9550000000000002E-2</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>7.8919000000000003E-2</v>
+      </c>
+      <c r="U14">
+        <v>3.2964E-2</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>2.2959E-2</v>
+      </c>
+      <c r="C15">
+        <v>8.7500000000000002E-4</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>5.6276E-2</v>
+      </c>
+      <c r="I15">
+        <v>1.1690000000000001E-2</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>5.6349999999999997E-2</v>
+      </c>
+      <c r="O15">
+        <v>8.2749999999999994E-3</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>4</v>
+      </c>
+      <c r="T15">
+        <v>5.6557999999999997E-2</v>
+      </c>
+      <c r="U15">
+        <v>5.1879999999999999E-3</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>1.268E-2</v>
+      </c>
+      <c r="C16">
+        <v>1.7200000000000001E-4</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>3.7588999999999997E-2</v>
+      </c>
+      <c r="I16">
+        <v>2.5279999999999999E-3</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>3.7809000000000002E-2</v>
+      </c>
+      <c r="O16">
+        <v>1.534E-3</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="T16">
+        <v>3.7721999999999999E-2</v>
+      </c>
+      <c r="U16">
+        <v>9.3899999999999995E-4</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>6.0299999999999998E-3</v>
+      </c>
+      <c r="C17">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>2.2953999999999999E-2</v>
+      </c>
+      <c r="I17">
+        <v>5.2700000000000002E-4</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>2.3029999999999998E-2</v>
+      </c>
+      <c r="O17">
+        <v>3.6699999999999998E-4</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <v>2.3005000000000001E-2</v>
+      </c>
+      <c r="U17">
+        <v>2.41E-4</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>2.4169999999999999E-3</v>
+      </c>
+      <c r="C18">
+        <v>1.4E-5</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>1.261E-2</v>
+      </c>
+      <c r="I18">
+        <v>1.3799999999999999E-4</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>1.2638999999999999E-2</v>
+      </c>
+      <c r="O18">
+        <v>1.06E-4</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>7</v>
+      </c>
+      <c r="T18">
+        <v>1.2591E-2</v>
+      </c>
+      <c r="U18">
+        <v>7.8999999999999996E-5</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>8.2100000000000001E-4</v>
+      </c>
+      <c r="C19">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>6.012E-3</v>
+      </c>
+      <c r="I19">
+        <v>3.8999999999999999E-5</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>8</v>
+      </c>
+      <c r="N19">
+        <v>6.0080000000000003E-3</v>
+      </c>
+      <c r="O19">
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>8</v>
+      </c>
+      <c r="T19">
+        <v>5.9589999999999999E-3</v>
+      </c>
+      <c r="U19">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="C20">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>2.4030000000000002E-3</v>
+      </c>
+      <c r="I20">
+        <v>1.1E-5</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>9</v>
+      </c>
+      <c r="N20">
+        <v>2.3879999999999999E-3</v>
+      </c>
+      <c r="O20">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>9</v>
+      </c>
+      <c r="T20">
+        <v>2.382E-3</v>
+      </c>
+      <c r="U20">
+        <v>1.4E-5</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>3.4E-5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>7.7499999999999997E-4</v>
+      </c>
+      <c r="I21">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="O21">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>10</v>
+      </c>
+      <c r="T21">
+        <v>7.8700000000000005E-4</v>
+      </c>
+      <c r="U21">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>1.92E-4</v>
+      </c>
+      <c r="I22">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11</v>
+      </c>
+      <c r="T22">
+        <v>1.9699999999999999E-4</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>12</v>
+      </c>
+      <c r="N23">
+        <v>3.4E-5</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12</v>
+      </c>
+      <c r="T23">
+        <v>3.4E-5</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>13</v>
+      </c>
+      <c r="N24">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13</v>
+      </c>
+      <c r="T24">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>14</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>-6</v>
+      </c>
+      <c r="B33">
+        <v>0.30824299999999999</v>
+      </c>
+      <c r="C33">
+        <v>0.42489199999999999</v>
+      </c>
+      <c r="D33">
+        <v>2.3679999999999999E-3</v>
+      </c>
+      <c r="E33">
+        <v>6.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>-5</v>
+      </c>
+      <c r="B34">
+        <v>0.28717500000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.39919900000000003</v>
+      </c>
+      <c r="D34">
+        <v>4.5199999999999998E-4</v>
+      </c>
+      <c r="E34">
+        <v>3.0000000000000001E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>-4</v>
+      </c>
+      <c r="B35">
+        <v>0.26436599999999999</v>
+      </c>
+      <c r="C35">
+        <v>0.36281000000000002</v>
+      </c>
+      <c r="D35">
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>-3</v>
+      </c>
+      <c r="B36">
+        <v>0.23891899999999999</v>
+      </c>
+      <c r="C36">
+        <v>0.31574600000000003</v>
+      </c>
+      <c r="D36">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>-2</v>
+      </c>
+      <c r="B37">
+        <v>0.21340400000000001</v>
+      </c>
+      <c r="C37">
+        <v>0.25837100000000002</v>
+      </c>
+      <c r="D37">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>-1</v>
+      </c>
+      <c r="B38">
+        <v>0.18671099999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.18992600000000001</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0.15889300000000001</v>
+      </c>
+      <c r="C39">
+        <v>0.121849</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0.130662</v>
+      </c>
+      <c r="C40">
+        <v>6.4692E-2</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>0.103837</v>
+      </c>
+      <c r="C41">
+        <v>2.6720000000000001E-2</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>7.8861000000000001E-2</v>
+      </c>
+      <c r="C42">
+        <v>8.6429999999999996E-3</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>5.6461999999999998E-2</v>
+      </c>
+      <c r="C43">
+        <v>2.1229999999999999E-3</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>3.7945E-2</v>
+      </c>
+      <c r="C44">
+        <v>4.2099999999999999E-4</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>2.2967000000000001E-2</v>
+      </c>
+      <c r="C45">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>1.2618000000000001E-2</v>
+      </c>
+      <c r="C46">
+        <v>1.2E-5</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>6.0749999999999997E-3</v>
+      </c>
+      <c r="C47">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>2.421E-3</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>7.8399999999999997E-4</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>2.04E-4</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>14</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>16</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>-8</v>
+      </c>
+      <c r="B60">
+        <v>0.345389</v>
+      </c>
+      <c r="C60">
+        <v>0.44394400000000001</v>
+      </c>
+      <c r="D60">
+        <v>9.0290000000000006E-3</v>
+      </c>
+      <c r="E60">
+        <v>5.7000000000000003E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>-7</v>
+      </c>
+      <c r="B61">
+        <v>0.32771099999999997</v>
+      </c>
+      <c r="C61">
+        <v>0.42535499999999998</v>
+      </c>
+      <c r="D61">
+        <v>2.1589999999999999E-3</v>
+      </c>
+      <c r="E61">
+        <v>6.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>-6</v>
+      </c>
+      <c r="B62">
+        <v>0.30797200000000002</v>
+      </c>
+      <c r="C62">
+        <v>0.39935900000000002</v>
+      </c>
+      <c r="D62">
+        <v>3.97E-4</v>
+      </c>
+      <c r="E62">
+        <v>3.9999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>-5</v>
+      </c>
+      <c r="B63">
+        <v>0.287132</v>
+      </c>
+      <c r="C63">
+        <v>0.365284</v>
+      </c>
+      <c r="D63">
+        <v>6.7999999999999999E-5</v>
+      </c>
+      <c r="E63">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>-4</v>
+      </c>
+      <c r="B64">
+        <v>0.26404</v>
+      </c>
+      <c r="C64">
+        <v>0.31866299999999997</v>
+      </c>
+      <c r="D64">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>-3</v>
+      </c>
+      <c r="B65">
+        <v>0.239704</v>
+      </c>
+      <c r="C65">
+        <v>0.26017299999999999</v>
+      </c>
+      <c r="D65">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>-2</v>
+      </c>
+      <c r="B66">
+        <v>0.21359900000000001</v>
+      </c>
+      <c r="C66">
+        <v>0.19102</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>-1</v>
+      </c>
+      <c r="B67">
+        <v>0.186386</v>
+      </c>
+      <c r="C67">
+        <v>0.122422</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0.15865799999999999</v>
+      </c>
+      <c r="C68">
+        <v>6.4099000000000003E-2</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>0.13100100000000001</v>
+      </c>
+      <c r="C69">
+        <v>2.6527999999999999E-2</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>0.104018</v>
+      </c>
+      <c r="C70">
+        <v>8.2819999999999994E-3</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>7.8914999999999999E-2</v>
+      </c>
+      <c r="C71">
+        <v>1.9599999999999999E-3</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>5.6372999999999999E-2</v>
+      </c>
+      <c r="C72">
+        <v>3.6400000000000001E-4</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>3.7580000000000002E-2</v>
+      </c>
+      <c r="C73">
+        <v>7.8999999999999996E-5</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74">
+        <v>2.3088999999999998E-2</v>
+      </c>
+      <c r="C74">
+        <v>1.1E-5</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>7</v>
+      </c>
+      <c r="B75">
+        <v>1.2668E-2</v>
+      </c>
+      <c r="C75">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76">
+        <v>5.999E-3</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77">
+        <v>2.4190000000000001E-3</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>10</v>
+      </c>
+      <c r="B78">
+        <v>8.0099999999999995E-4</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>11</v>
+      </c>
+      <c r="B79">
+        <v>2.0100000000000001E-4</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>12</v>
+      </c>
+      <c r="B80">
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>13</v>
+      </c>
+      <c r="B81">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>14</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="G31:K31"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7362C4-3CB0-40CA-8B81-EDA4001C7331}">
+  <dimension ref="A1:U53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.875" customWidth="1"/>
+    <col min="13" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.875" customWidth="1"/>
+    <col min="16" max="17" width="14.125" customWidth="1"/>
+    <col min="20" max="20" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>-8</v>
+      </c>
+      <c r="B3">
+        <v>0.46564499999999998</v>
+      </c>
+      <c r="C3">
+        <v>0.49219600000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.49764799999999998</v>
+      </c>
+      <c r="E3">
+        <v>0.497753</v>
+      </c>
+      <c r="G3">
+        <v>-8</v>
+      </c>
+      <c r="H3">
+        <v>0.45699600000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.47220499999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.49141099999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.49656299999999998</v>
+      </c>
+      <c r="M3">
+        <v>-8</v>
+      </c>
+      <c r="N3">
+        <v>0.44416800000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.446245</v>
+      </c>
+      <c r="P3">
+        <v>0.481962</v>
+      </c>
+      <c r="Q3">
+        <v>0.49194500000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-7</v>
+      </c>
+      <c r="B4">
+        <v>0.45482899999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.487732</v>
+      </c>
+      <c r="D4">
+        <v>0.49721700000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.49732300000000002</v>
+      </c>
+      <c r="G4">
+        <v>-7</v>
+      </c>
+      <c r="H4">
+        <v>0.44370700000000002</v>
+      </c>
+      <c r="I4">
+        <v>0.461648</v>
+      </c>
+      <c r="J4">
+        <v>0.48723300000000003</v>
+      </c>
+      <c r="K4">
+        <v>0.49510700000000002</v>
+      </c>
+      <c r="M4">
+        <v>-7</v>
+      </c>
+      <c r="N4">
+        <v>0.42509799999999998</v>
+      </c>
+      <c r="O4">
+        <v>0.42645</v>
+      </c>
+      <c r="P4">
+        <v>0.473609</v>
+      </c>
+      <c r="Q4">
+        <v>0.48600500000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>-6</v>
+      </c>
+      <c r="B5">
+        <v>0.44118800000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.48287400000000003</v>
+      </c>
+      <c r="D5">
+        <v>0.49634299999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.49573499999999998</v>
+      </c>
+      <c r="G5">
+        <v>-6</v>
+      </c>
+      <c r="H5">
+        <v>0.42448599999999997</v>
+      </c>
+      <c r="I5">
+        <v>0.44630700000000001</v>
+      </c>
+      <c r="J5">
+        <v>0.47883399999999998</v>
+      </c>
+      <c r="K5">
+        <v>0.491871</v>
+      </c>
+      <c r="M5">
+        <v>-6</v>
+      </c>
+      <c r="N5">
+        <v>0.39874999999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.397171</v>
+      </c>
+      <c r="P5">
+        <v>0.45790900000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.47475899999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>-5</v>
+      </c>
+      <c r="B6">
+        <v>0.42235200000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.47540500000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.494952</v>
+      </c>
+      <c r="E6">
+        <v>0.49406899999999998</v>
+      </c>
+      <c r="G6">
+        <v>-5</v>
+      </c>
+      <c r="H6">
+        <v>0.39790900000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.42321999999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.46494999999999997</v>
+      </c>
+      <c r="K6">
+        <v>0.48638100000000001</v>
+      </c>
+      <c r="M6">
+        <v>-5</v>
+      </c>
+      <c r="N6">
+        <v>0.36482500000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.35332999999999998</v>
+      </c>
+      <c r="P6">
+        <v>0.43123</v>
+      </c>
+      <c r="Q6">
+        <v>0.44985999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>-4</v>
+      </c>
+      <c r="B7">
+        <v>0.39699099999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.46254400000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.49062</v>
+      </c>
+      <c r="E7">
+        <v>0.49143700000000001</v>
+      </c>
+      <c r="G7">
+        <v>-4</v>
+      </c>
+      <c r="H7">
+        <v>0.36336000000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.38622899999999999</v>
+      </c>
+      <c r="J7">
+        <v>0.439392</v>
+      </c>
+      <c r="K7">
+        <v>0.472275</v>
+      </c>
+      <c r="M7">
+        <v>-4</v>
+      </c>
+      <c r="N7">
+        <v>0.31872499999999998</v>
+      </c>
+      <c r="O7">
+        <v>0.29153099999999998</v>
+      </c>
+      <c r="P7">
+        <v>0.38504100000000002</v>
+      </c>
+      <c r="Q7">
+        <v>0.39634999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-3</v>
+      </c>
+      <c r="B8">
+        <v>0.36317100000000002</v>
+      </c>
+      <c r="C8">
+        <v>0.44222299999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.48309299999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.48558800000000002</v>
+      </c>
+      <c r="G8">
+        <v>-3</v>
+      </c>
+      <c r="H8">
+        <v>0.31646299999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.33338400000000001</v>
+      </c>
+      <c r="J8">
+        <v>0.39144499999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.43934000000000001</v>
+      </c>
+      <c r="M8">
+        <v>-3</v>
+      </c>
+      <c r="N8">
+        <v>0.25989299999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.211202</v>
+      </c>
+      <c r="P8">
+        <v>0.30571100000000001</v>
+      </c>
+      <c r="Q8">
+        <v>0.29456100000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-2</v>
+      </c>
+      <c r="B9">
+        <v>0.31888899999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.410165</v>
+      </c>
+      <c r="D9">
+        <v>0.466443</v>
+      </c>
+      <c r="E9">
+        <v>0.47426800000000002</v>
+      </c>
+      <c r="G9">
+        <v>-2</v>
+      </c>
+      <c r="H9">
+        <v>0.25766299999999998</v>
+      </c>
+      <c r="I9">
+        <v>0.25833299999999998</v>
+      </c>
+      <c r="J9">
+        <v>0.31173000000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.36577199999999999</v>
+      </c>
+      <c r="M9">
+        <v>-2</v>
+      </c>
+      <c r="N9">
+        <v>0.19131000000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.124491</v>
+      </c>
+      <c r="P9">
+        <v>0.19116</v>
+      </c>
+      <c r="Q9">
+        <v>0.15687100000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>-1</v>
+      </c>
+      <c r="B10">
+        <v>0.26274799999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.36068</v>
+      </c>
+      <c r="D10">
+        <v>0.43317800000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.450239</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>0.190189</v>
+      </c>
+      <c r="I10">
+        <v>0.16922999999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.19736500000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.23536000000000001</v>
+      </c>
+      <c r="M10">
+        <v>-1</v>
+      </c>
+      <c r="N10">
+        <v>0.122515</v>
+      </c>
+      <c r="O10">
+        <v>5.7764000000000003E-2</v>
+      </c>
+      <c r="P10">
+        <v>8.4217E-2</v>
+      </c>
+      <c r="Q10">
+        <v>5.2242999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0.19995499999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.28597899999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.36571100000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.394206</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.121975</v>
+      </c>
+      <c r="I11">
+        <v>8.7217000000000003E-2</v>
+      </c>
+      <c r="J11">
+        <v>8.9278999999999997E-2</v>
+      </c>
+      <c r="K11">
+        <v>9.5476000000000005E-2</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>6.4808000000000004E-2</v>
+      </c>
+      <c r="O11">
+        <v>1.8731000000000001E-2</v>
+      </c>
+      <c r="P11">
+        <v>2.4584000000000002E-2</v>
+      </c>
+      <c r="Q11">
+        <v>1.1534000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0.13364300000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.19286200000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.25317099999999998</v>
+      </c>
+      <c r="E12">
+        <v>0.279673</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>6.4338999999999993E-2</v>
+      </c>
+      <c r="I12">
+        <v>3.2098000000000002E-2</v>
+      </c>
+      <c r="J12">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="K12">
+        <v>2.2261E-2</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>2.682E-2</v>
+      </c>
+      <c r="O12">
+        <v>4.8510000000000003E-3</v>
+      </c>
+      <c r="P12">
+        <v>5.0130000000000001E-3</v>
+      </c>
+      <c r="Q12">
+        <v>2.3240000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3">
+      <c r="B13">
+        <v>7.5705999999999996E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.10151399999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.12565200000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.12989999999999999</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2.7203999999999999E-2</v>
+      </c>
+      <c r="I13">
+        <v>8.7989999999999995E-3</v>
+      </c>
+      <c r="J13">
+        <v>5.5110000000000003E-3</v>
+      </c>
+      <c r="K13">
+        <v>3.728E-3</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>8.4539999999999997E-3</v>
+      </c>
+      <c r="O13">
+        <v>1.039E-3</v>
+      </c>
+      <c r="P13">
+        <v>1.0369999999999999E-3</v>
+      </c>
+      <c r="Q13">
+        <v>6.9700000000000003E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3.5209999999999998E-2</v>
+      </c>
+      <c r="C14">
+        <v>3.9639000000000001E-2</v>
+      </c>
+      <c r="D14">
+        <v>3.9708E-2</v>
+      </c>
+      <c r="E14">
+        <v>3.3424000000000002E-2</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>8.5880000000000001E-3</v>
+      </c>
+      <c r="I14">
+        <v>2.016E-3</v>
+      </c>
+      <c r="J14">
+        <v>1.212E-3</v>
+      </c>
+      <c r="K14">
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>2.0929999999999998E-3</v>
+      </c>
+      <c r="O14">
+        <v>2.14E-4</v>
+      </c>
+      <c r="P14">
+        <v>2.5900000000000001E-4</v>
+      </c>
+      <c r="Q14">
+        <v>2.4899999999999998E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>1.2591E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.1270000000000001E-2</v>
+      </c>
+      <c r="D15">
+        <v>8.3180000000000007E-3</v>
+      </c>
+      <c r="E15">
+        <v>5.4450000000000002E-3</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>2.1080000000000001E-3</v>
+      </c>
+      <c r="I15">
+        <v>3.9100000000000002E-4</v>
+      </c>
+      <c r="J15">
+        <v>2.9E-4</v>
+      </c>
+      <c r="K15">
+        <v>2.3900000000000001E-4</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="O15">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="P15">
+        <v>8.5000000000000006E-5</v>
+      </c>
+      <c r="Q15">
+        <v>9.2E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B16">
+        <v>3.7910000000000001E-3</v>
+      </c>
+      <c r="C16">
+        <v>2.4880000000000002E-3</v>
+      </c>
+      <c r="D16">
+        <v>1.555E-3</v>
+      </c>
+      <c r="E16">
+        <v>9.1699999999999995E-4</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>3.6600000000000001E-4</v>
+      </c>
+      <c r="I16">
+        <v>1E-4</v>
+      </c>
+      <c r="J16">
+        <v>1.0399999999999999E-4</v>
+      </c>
+      <c r="K16">
+        <v>7.2999999999999999E-5</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="O16">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="P16">
+        <v>2.9E-5</v>
+      </c>
+      <c r="Q16">
+        <v>2.5999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>8.61E-4</v>
+      </c>
+      <c r="C17">
+        <v>5.44E-4</v>
+      </c>
+      <c r="D17">
+        <v>3.68E-4</v>
+      </c>
+      <c r="E17">
+        <v>2.43E-4</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>6.3999999999999997E-5</v>
+      </c>
+      <c r="I17">
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="J17">
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="K17">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>1.5E-5</v>
+      </c>
+      <c r="O17">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="P17">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Q17">
+        <v>7.9999999999999996E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>1.73E-4</v>
+      </c>
+      <c r="C18">
+        <v>1.5300000000000001E-4</v>
+      </c>
+      <c r="D18">
+        <v>1.2899999999999999E-4</v>
+      </c>
+      <c r="E18">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="I18">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="J18">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="K18">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="O18">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="P18">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="Q18">
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="C19">
+        <v>3.8999999999999999E-5</v>
+      </c>
+      <c r="D19">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="E19">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J19">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="K19">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="M19">
+        <v>8</v>
+      </c>
+      <c r="N19">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C20">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="D20">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="E20">
+        <v>1.1E-5</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>9</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="C21">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="D21">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="E21">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E22">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>12</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>13</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>14</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="H29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="R29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" t="s">
+        <v>47</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>-8</v>
+      </c>
+      <c r="B31">
+        <v>0.34543099999999999</v>
+      </c>
+      <c r="C31">
+        <v>0.46564499999999998</v>
+      </c>
+      <c r="D31">
+        <v>0.45699600000000001</v>
+      </c>
+      <c r="E31">
+        <v>0.44416800000000001</v>
+      </c>
+      <c r="H31">
+        <v>0.34543099999999999</v>
+      </c>
+      <c r="I31">
+        <v>0.49219600000000002</v>
+      </c>
+      <c r="J31">
+        <v>0.47220499999999999</v>
+      </c>
+      <c r="K31">
+        <v>0.446245</v>
+      </c>
+      <c r="M31">
+        <v>0.34543099999999999</v>
+      </c>
+      <c r="N31">
+        <v>0.49764799999999998</v>
+      </c>
+      <c r="O31">
+        <v>0.49141099999999999</v>
+      </c>
+      <c r="P31">
+        <v>0.481962</v>
+      </c>
+      <c r="R31">
+        <v>0.34543099999999999</v>
+      </c>
+      <c r="S31">
+        <v>0.497753</v>
+      </c>
+      <c r="T31">
+        <v>0.49656299999999998</v>
+      </c>
+      <c r="U31">
+        <v>0.49194500000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>-7</v>
+      </c>
+      <c r="B32">
+        <v>0.32742500000000002</v>
+      </c>
+      <c r="C32">
+        <v>0.45482899999999998</v>
+      </c>
+      <c r="D32">
+        <v>0.44370700000000002</v>
+      </c>
+      <c r="E32">
+        <v>0.42509799999999998</v>
+      </c>
+      <c r="H32">
+        <v>0.32742500000000002</v>
+      </c>
+      <c r="I32">
+        <v>0.487732</v>
+      </c>
+      <c r="J32">
+        <v>0.461648</v>
+      </c>
+      <c r="K32">
+        <v>0.42645</v>
+      </c>
+      <c r="M32">
+        <v>0.32742500000000002</v>
+      </c>
+      <c r="N32">
+        <v>0.49721700000000002</v>
+      </c>
+      <c r="O32">
+        <v>0.48723300000000003</v>
+      </c>
+      <c r="P32">
+        <v>0.473609</v>
+      </c>
+      <c r="R32">
+        <v>0.32742500000000002</v>
+      </c>
+      <c r="S32">
+        <v>0.49732300000000002</v>
+      </c>
+      <c r="T32">
+        <v>0.49510700000000002</v>
+      </c>
+      <c r="U32">
+        <v>0.48600500000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>-6</v>
+      </c>
+      <c r="B33">
+        <v>0.30755900000000003</v>
+      </c>
+      <c r="C33">
+        <v>0.44118800000000002</v>
+      </c>
+      <c r="D33">
+        <v>0.42448599999999997</v>
+      </c>
+      <c r="E33">
+        <v>0.39874999999999999</v>
+      </c>
+      <c r="H33">
+        <v>0.30755900000000003</v>
+      </c>
+      <c r="I33">
+        <v>0.48287400000000003</v>
+      </c>
+      <c r="J33">
+        <v>0.44630700000000001</v>
+      </c>
+      <c r="K33">
+        <v>0.397171</v>
+      </c>
+      <c r="M33">
+        <v>0.30755900000000003</v>
+      </c>
+      <c r="N33">
+        <v>0.49634299999999998</v>
+      </c>
+      <c r="O33">
+        <v>0.47883399999999998</v>
+      </c>
+      <c r="P33">
+        <v>0.45790900000000001</v>
+      </c>
+      <c r="R33">
+        <v>0.30755900000000003</v>
+      </c>
+      <c r="S33">
+        <v>0.49573499999999998</v>
+      </c>
+      <c r="T33">
+        <v>0.491871</v>
+      </c>
+      <c r="U33">
+        <v>0.47475899999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>-5</v>
+      </c>
+      <c r="B34">
+        <v>0.286549</v>
+      </c>
+      <c r="C34">
+        <v>0.42235200000000001</v>
+      </c>
+      <c r="D34">
+        <v>0.39790900000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.36482500000000001</v>
+      </c>
+      <c r="H34">
+        <v>0.286549</v>
+      </c>
+      <c r="I34">
+        <v>0.47540500000000002</v>
+      </c>
+      <c r="J34">
+        <v>0.42321999999999999</v>
+      </c>
+      <c r="K34">
+        <v>0.35332999999999998</v>
+      </c>
+      <c r="M34">
+        <v>0.286549</v>
+      </c>
+      <c r="N34">
+        <v>0.494952</v>
+      </c>
+      <c r="O34">
+        <v>0.46494999999999997</v>
+      </c>
+      <c r="P34">
+        <v>0.43123</v>
+      </c>
+      <c r="R34">
+        <v>0.286549</v>
+      </c>
+      <c r="S34">
+        <v>0.49406899999999998</v>
+      </c>
+      <c r="T34">
+        <v>0.48638100000000001</v>
+      </c>
+      <c r="U34">
+        <v>0.44985999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>-4</v>
+      </c>
+      <c r="B35">
+        <v>0.26406400000000002</v>
+      </c>
+      <c r="C35">
+        <v>0.39699099999999998</v>
+      </c>
+      <c r="D35">
+        <v>0.36336000000000002</v>
+      </c>
+      <c r="E35">
+        <v>0.31872499999999998</v>
+      </c>
+      <c r="H35">
+        <v>0.26406400000000002</v>
+      </c>
+      <c r="I35">
+        <v>0.46254400000000001</v>
+      </c>
+      <c r="J35">
+        <v>0.38622899999999999</v>
+      </c>
+      <c r="K35">
+        <v>0.29153099999999998</v>
+      </c>
+      <c r="M35">
+        <v>0.26406400000000002</v>
+      </c>
+      <c r="N35">
+        <v>0.49062</v>
+      </c>
+      <c r="O35">
+        <v>0.439392</v>
+      </c>
+      <c r="P35">
+        <v>0.38504100000000002</v>
+      </c>
+      <c r="R35">
+        <v>0.26406400000000002</v>
+      </c>
+      <c r="S35">
+        <v>0.49143700000000001</v>
+      </c>
+      <c r="T35">
+        <v>0.472275</v>
+      </c>
+      <c r="U35">
+        <v>0.39634999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>-3</v>
+      </c>
+      <c r="B36">
+        <v>0.23904900000000001</v>
+      </c>
+      <c r="C36">
+        <v>0.36317100000000002</v>
+      </c>
+      <c r="D36">
+        <v>0.31646299999999999</v>
+      </c>
+      <c r="E36">
+        <v>0.25989299999999999</v>
+      </c>
+      <c r="H36">
+        <v>0.23904900000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.44222299999999998</v>
+      </c>
+      <c r="J36">
+        <v>0.33338400000000001</v>
+      </c>
+      <c r="K36">
+        <v>0.211202</v>
+      </c>
+      <c r="M36">
+        <v>0.23904900000000001</v>
+      </c>
+      <c r="N36">
+        <v>0.48309299999999999</v>
+      </c>
+      <c r="O36">
+        <v>0.39144499999999999</v>
+      </c>
+      <c r="P36">
+        <v>0.30571100000000001</v>
+      </c>
+      <c r="R36">
+        <v>0.23904900000000001</v>
+      </c>
+      <c r="S36">
+        <v>0.48558800000000002</v>
+      </c>
+      <c r="T36">
+        <v>0.43934000000000001</v>
+      </c>
+      <c r="U36">
+        <v>0.29456100000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>-2</v>
+      </c>
+      <c r="B37">
+        <v>0.213418</v>
+      </c>
+      <c r="C37">
+        <v>0.31888899999999998</v>
+      </c>
+      <c r="D37">
+        <v>0.25766299999999998</v>
+      </c>
+      <c r="E37">
+        <v>0.19131000000000001</v>
+      </c>
+      <c r="H37">
+        <v>0.213418</v>
+      </c>
+      <c r="I37">
+        <v>0.410165</v>
+      </c>
+      <c r="J37">
+        <v>0.25833299999999998</v>
+      </c>
+      <c r="K37">
+        <v>0.124491</v>
+      </c>
+      <c r="M37">
+        <v>0.213418</v>
+      </c>
+      <c r="N37">
+        <v>0.466443</v>
+      </c>
+      <c r="O37">
+        <v>0.31173000000000001</v>
+      </c>
+      <c r="P37">
+        <v>0.19116</v>
+      </c>
+      <c r="R37">
+        <v>0.213418</v>
+      </c>
+      <c r="S37">
+        <v>0.47426800000000002</v>
+      </c>
+      <c r="T37">
+        <v>0.36577199999999999</v>
+      </c>
+      <c r="U37">
+        <v>0.15687100000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>-1</v>
+      </c>
+      <c r="B38">
+        <v>0.18623799999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.26274799999999998</v>
+      </c>
+      <c r="D38">
+        <v>0.190189</v>
+      </c>
+      <c r="E38">
+        <v>0.122515</v>
+      </c>
+      <c r="H38">
+        <v>0.18623799999999999</v>
+      </c>
+      <c r="I38">
+        <v>0.36068</v>
+      </c>
+      <c r="J38">
+        <v>0.16922999999999999</v>
+      </c>
+      <c r="K38">
+        <v>5.7764000000000003E-2</v>
+      </c>
+      <c r="M38">
+        <v>0.18623799999999999</v>
+      </c>
+      <c r="N38">
+        <v>0.43317800000000001</v>
+      </c>
+      <c r="O38">
+        <v>0.19736500000000001</v>
+      </c>
+      <c r="P38">
+        <v>8.4217E-2</v>
+      </c>
+      <c r="R38">
+        <v>0.18623799999999999</v>
+      </c>
+      <c r="S38">
+        <v>0.450239</v>
+      </c>
+      <c r="T38">
+        <v>0.23536000000000001</v>
+      </c>
+      <c r="U38">
+        <v>5.2242999999999998E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0.15854799999999999</v>
+      </c>
+      <c r="C39">
+        <v>0.19995499999999999</v>
+      </c>
+      <c r="D39">
+        <v>0.121975</v>
+      </c>
+      <c r="E39">
+        <v>6.4808000000000004E-2</v>
+      </c>
+      <c r="H39">
+        <v>0.15854799999999999</v>
+      </c>
+      <c r="I39">
+        <v>0.28597899999999998</v>
+      </c>
+      <c r="J39">
+        <v>8.7217000000000003E-2</v>
+      </c>
+      <c r="K39">
+        <v>1.8731000000000001E-2</v>
+      </c>
+      <c r="M39">
+        <v>0.15854799999999999</v>
+      </c>
+      <c r="N39">
+        <v>0.36571100000000001</v>
+      </c>
+      <c r="O39">
+        <v>8.9278999999999997E-2</v>
+      </c>
+      <c r="P39">
+        <v>2.4584000000000002E-2</v>
+      </c>
+      <c r="R39">
+        <v>0.15854799999999999</v>
+      </c>
+      <c r="S39">
+        <v>0.394206</v>
+      </c>
+      <c r="T39">
+        <v>9.5476000000000005E-2</v>
+      </c>
+      <c r="U39">
+        <v>1.1534000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>0.13072500000000001</v>
+      </c>
+      <c r="C40">
+        <v>0.13364300000000001</v>
+      </c>
+      <c r="D40">
+        <v>6.4338999999999993E-2</v>
+      </c>
+      <c r="E40">
+        <v>2.682E-2</v>
+      </c>
+      <c r="H40">
+        <v>0.13072500000000001</v>
+      </c>
+      <c r="I40">
+        <v>0.19286200000000001</v>
+      </c>
+      <c r="J40">
+        <v>3.2098000000000002E-2</v>
+      </c>
+      <c r="K40">
+        <v>4.8510000000000003E-3</v>
+      </c>
+      <c r="M40">
+        <v>0.13072500000000001</v>
+      </c>
+      <c r="N40">
+        <v>0.25317099999999998</v>
+      </c>
+      <c r="O40">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="P40">
+        <v>5.0130000000000001E-3</v>
+      </c>
+      <c r="R40">
+        <v>0.13072500000000001</v>
+      </c>
+      <c r="S40">
+        <v>0.279673</v>
+      </c>
+      <c r="T40">
+        <v>2.2261E-2</v>
+      </c>
+      <c r="U40">
+        <v>2.3240000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>0.104171</v>
+      </c>
+      <c r="C41">
+        <v>7.5705999999999996E-2</v>
+      </c>
+      <c r="D41">
+        <v>2.7203999999999999E-2</v>
+      </c>
+      <c r="E41">
+        <v>8.4539999999999997E-3</v>
+      </c>
+      <c r="H41">
+        <v>0.104171</v>
+      </c>
+      <c r="I41">
+        <v>0.10151399999999999</v>
+      </c>
+      <c r="J41">
+        <v>8.7989999999999995E-3</v>
+      </c>
+      <c r="K41">
+        <v>1.039E-3</v>
+      </c>
+      <c r="M41">
+        <v>0.104171</v>
+      </c>
+      <c r="N41">
+        <v>0.12565200000000001</v>
+      </c>
+      <c r="O41">
+        <v>5.5110000000000003E-3</v>
+      </c>
+      <c r="P41">
+        <v>1.0369999999999999E-3</v>
+      </c>
+      <c r="R41">
+        <v>0.104171</v>
+      </c>
+      <c r="S41">
+        <v>0.12989999999999999</v>
+      </c>
+      <c r="T41">
+        <v>3.728E-3</v>
+      </c>
+      <c r="U41">
+        <v>6.9700000000000003E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4">
+      <c r="B42">
+        <v>7.8919000000000003E-2</v>
+      </c>
+      <c r="C42">
+        <v>3.5209999999999998E-2</v>
+      </c>
+      <c r="D42">
+        <v>8.5880000000000001E-3</v>
+      </c>
+      <c r="E42">
+        <v>2.0929999999999998E-3</v>
+      </c>
+      <c r="H42">
+        <v>7.8919000000000003E-2</v>
+      </c>
+      <c r="I42">
+        <v>3.9639000000000001E-2</v>
+      </c>
+      <c r="J42">
+        <v>2.016E-3</v>
+      </c>
+      <c r="K42">
+        <v>2.14E-4</v>
+      </c>
+      <c r="M42">
+        <v>7.8919000000000003E-2</v>
+      </c>
+      <c r="N42">
+        <v>3.9708E-2</v>
+      </c>
+      <c r="O42">
+        <v>1.212E-3</v>
+      </c>
+      <c r="P42">
+        <v>2.5900000000000001E-4</v>
+      </c>
+      <c r="R42">
+        <v>7.8919000000000003E-2</v>
+      </c>
+      <c r="S42">
+        <v>3.3424000000000002E-2</v>
+      </c>
+      <c r="T42">
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="U42">
+        <v>2.4899999999999998E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>5.6557999999999997E-2</v>
+      </c>
+      <c r="C43">
+        <v>1.2591E-2</v>
+      </c>
+      <c r="D43">
+        <v>2.1080000000000001E-3</v>
+      </c>
+      <c r="E43">
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="H43">
+        <v>5.6557999999999997E-2</v>
+      </c>
+      <c r="I43">
+        <v>1.1270000000000001E-2</v>
+      </c>
+      <c r="J43">
+        <v>3.9100000000000002E-4</v>
+      </c>
+      <c r="K43">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="M43">
+        <v>5.6557999999999997E-2</v>
+      </c>
+      <c r="N43">
+        <v>8.3180000000000007E-3</v>
+      </c>
+      <c r="O43">
+        <v>2.9E-4</v>
+      </c>
+      <c r="P43">
+        <v>8.5000000000000006E-5</v>
+      </c>
+      <c r="R43">
+        <v>5.6557999999999997E-2</v>
+      </c>
+      <c r="S43">
+        <v>5.4450000000000002E-3</v>
+      </c>
+      <c r="T43">
+        <v>2.3900000000000001E-4</v>
+      </c>
+      <c r="U43">
+        <v>9.2E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>3.7721999999999999E-2</v>
+      </c>
+      <c r="C44">
+        <v>3.7910000000000001E-3</v>
+      </c>
+      <c r="D44">
+        <v>3.6600000000000001E-4</v>
+      </c>
+      <c r="E44">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="H44">
+        <v>3.7721999999999999E-2</v>
+      </c>
+      <c r="I44">
+        <v>2.4880000000000002E-3</v>
+      </c>
+      <c r="J44">
+        <v>1E-4</v>
+      </c>
+      <c r="K44">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="M44">
+        <v>3.7721999999999999E-2</v>
+      </c>
+      <c r="N44">
+        <v>1.555E-3</v>
+      </c>
+      <c r="O44">
+        <v>1.0399999999999999E-4</v>
+      </c>
+      <c r="P44">
+        <v>2.9E-5</v>
+      </c>
+      <c r="R44">
+        <v>3.7721999999999999E-2</v>
+      </c>
+      <c r="S44">
+        <v>9.1699999999999995E-4</v>
+      </c>
+      <c r="T44">
+        <v>7.2999999999999999E-5</v>
+      </c>
+      <c r="U44">
+        <v>2.5999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <v>2.3005000000000001E-2</v>
+      </c>
+      <c r="C45">
+        <v>8.61E-4</v>
+      </c>
+      <c r="D45">
+        <v>6.3999999999999997E-5</v>
+      </c>
+      <c r="E45">
+        <v>1.5E-5</v>
+      </c>
+      <c r="H45">
+        <v>2.3005000000000001E-2</v>
+      </c>
+      <c r="I45">
+        <v>5.44E-4</v>
+      </c>
+      <c r="J45">
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="K45">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="M45">
+        <v>2.3005000000000001E-2</v>
+      </c>
+      <c r="N45">
+        <v>3.68E-4</v>
+      </c>
+      <c r="O45">
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="P45">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="R45">
+        <v>2.3005000000000001E-2</v>
+      </c>
+      <c r="S45">
+        <v>2.43E-4</v>
+      </c>
+      <c r="T45">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="U45">
+        <v>7.9999999999999996E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5">
+      <c r="B46">
+        <v>1.2591E-2</v>
+      </c>
+      <c r="C46">
+        <v>1.73E-4</v>
+      </c>
+      <c r="D46">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="E46">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="H46">
+        <v>1.2591E-2</v>
+      </c>
+      <c r="I46">
+        <v>1.5300000000000001E-4</v>
+      </c>
+      <c r="J46">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="K46">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="M46">
+        <v>1.2591E-2</v>
+      </c>
+      <c r="N46">
+        <v>1.2899999999999999E-4</v>
+      </c>
+      <c r="O46">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="P46">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="R46">
+        <v>1.2591E-2</v>
+      </c>
+      <c r="S46">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="T46">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="U46">
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>5.9589999999999999E-3</v>
+      </c>
+      <c r="C47">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="H47">
+        <v>5.9589999999999999E-3</v>
+      </c>
+      <c r="I47">
+        <v>3.8999999999999999E-5</v>
+      </c>
+      <c r="J47">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>5.9589999999999999E-3</v>
+      </c>
+      <c r="N47">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="O47">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="P47">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="R47">
+        <v>5.9589999999999999E-3</v>
+      </c>
+      <c r="S47">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="T47">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45660</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>45661</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B48">
+        <v>2.382E-3</v>
+      </c>
+      <c r="C48">
+        <v>1.1E-5</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>2.382E-3</v>
+      </c>
+      <c r="I48">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>2.382E-3</v>
+      </c>
+      <c r="N48">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>2.382E-3</v>
+      </c>
+      <c r="S48">
+        <v>1.1E-5</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B49">
+        <v>7.8700000000000005E-4</v>
+      </c>
+      <c r="C49">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>7.8700000000000005E-4</v>
+      </c>
+      <c r="I49">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>7.8700000000000005E-4</v>
+      </c>
+      <c r="N49">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>7.8700000000000005E-4</v>
+      </c>
+      <c r="S49">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B50">
+        <v>1.9699999999999999E-4</v>
+      </c>
+      <c r="C50">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1.9699999999999999E-4</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>1.9699999999999999E-4</v>
+      </c>
+      <c r="N50">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>1.9699999999999999E-4</v>
+      </c>
+      <c r="S50">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>9</v>
+      <c r="B51">
+        <v>3.4E-5</v>
+      </c>
+      <c r="C51">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>3.4E-5</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>3.4E-5</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>3.4E-5</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>14</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
+  <mergeCells count="7">
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="M29:P29"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>